--- a/Plans - Copy.xlsx
+++ b/Plans - Copy.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1A2BD4-5C41-473B-BEAC-17BFBECD0C92}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>Ratio K*/K</t>
   </si>
@@ -134,11 +133,17 @@
   <si>
     <t>wrote something to push it again</t>
   </si>
+  <si>
+    <t>hello there</t>
+  </si>
+  <si>
+    <t>general kenobi</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.00000E+00"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
@@ -146,7 +151,7 @@
     <numFmt numFmtId="167" formatCode="0.00000000000E+00"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,21 +389,10 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -433,7 +427,6 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -441,14 +434,13 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.41211621274613403"/>
-          <c:y val="0.15723521714474528"/>
-          <c:w val="0.75722462817147895"/>
-          <c:h val="0.72088764946048445"/>
+          <c:y val="0.15723521714474531"/>
+          <c:w val="0.75722462817147906"/>
+          <c:h val="0.72088764946048456"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -524,35 +516,25 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EE65-446F-B5B0-96B8AF12F512}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="114062464"/>
-        <c:axId val="114064000"/>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="165324288"/>
+        <c:axId val="165325824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114062464"/>
+        <c:axId val="165324288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -586,19 +568,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114064000"/>
+        <c:crossAx val="165325824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114064000"/>
+        <c:axId val="165325824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -616,7 +596,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="0.00000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -644,7 +623,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="114062464"/>
+        <c:crossAx val="165324288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -658,7 +637,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -698,7 +676,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1260,7 +1238,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E6C4731-B3AA-48B1-9CB1-DADB56DEE57F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E6C4731-B3AA-48B1-9CB1-DADB56DEE57F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1301,7 +1279,7 @@
         <xdr:cNvPr id="2" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1320,7 +1298,7 @@
           <xdr:cNvPr id="3" name="Picture 1" descr="https://lh3.googleusercontent.com/opztcMBTShvmsU6-0CaNPb2LsAidM8K55NR3JgufMXs2Ejp4ir5r3SAH6WpsDEww8Mj7T9mx0ZVTLf8-i0zP-pJtseoj7nLBpKaCTr4b-e9dVRKUyjFEQWGLMaXrbmySxq3_mZOmiyw">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1351,7 +1329,7 @@
           <xdr:cNvPr id="4" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1660,21 +1638,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -1690,7 +1668,7 @@
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="37.5" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1731,7 +1709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="3">
         <v>0.7</v>
       </c>
@@ -1770,7 +1748,7 @@
       </c>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="3">
         <v>0.8</v>
       </c>
@@ -1811,7 +1789,7 @@
         <v>1.66287837877E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="13" customFormat="1">
       <c r="A4" s="16">
         <v>0.85</v>
       </c>
@@ -1852,7 +1830,7 @@
         <v>2.0395659816199998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="3">
         <v>0.9</v>
       </c>
@@ -1893,7 +1871,7 @@
         <v>2.42437635812E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="3">
         <v>0.95</v>
       </c>
@@ -1934,7 +1912,7 @@
         <v>3.8551089506200001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1982,7 +1960,7 @@
         <v>7.7840949854600001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="3">
         <v>1.1000000000000001</v>
       </c>
@@ -2030,7 +2008,7 @@
         <v>2.8806060876899998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="3">
         <v>1.1499999999999999</v>
       </c>
@@ -2072,7 +2050,7 @@
         <v>4.2301875617800001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="3">
         <v>1.2</v>
       </c>
@@ -2120,7 +2098,7 @@
         <v>5.75017429156E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="3">
         <v>1.25</v>
       </c>
@@ -2162,7 +2140,7 @@
         <v>7.3992581073399996E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="3">
         <v>1.3</v>
       </c>
@@ -2210,7 +2188,7 @@
         <v>9.1342470927E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="3">
         <v>1.35</v>
       </c>
@@ -2252,7 +2230,7 @@
         <v>0.109110206391</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="3">
         <v>1.4</v>
       </c>
@@ -2300,7 +2278,7 @@
         <v>0.12685350035500001</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="3">
         <v>1.45</v>
       </c>
@@ -2342,7 +2320,7 @@
         <v>0.144138075324</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="3">
         <v>1.5</v>
       </c>
@@ -2390,7 +2368,7 @@
         <v>0.16054767188399999</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12">
       <c r="C18" s="10">
         <v>5.0134391530400001E-8</v>
       </c>
@@ -2406,7 +2384,7 @@
         <v>1.3137592759449035E-5</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12">
       <c r="C19" s="10">
         <v>4.1948867536799998E-8</v>
       </c>
@@ -2422,7 +2400,7 @@
         <v>1.0765397746581584E-5</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12">
       <c r="C20" s="10">
         <v>3.3808652123E-8</v>
       </c>
@@ -2438,7 +2416,7 @@
         <v>7.3408464231761172E-6</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12">
       <c r="C21" s="10">
         <v>2.5938578555499999E-8</v>
       </c>
@@ -2461,7 +2439,7 @@
         <v>3.7665085983462632E-6</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12">
       <c r="C22" s="10">
         <v>1.8582804287899999E-8</v>
       </c>
@@ -2484,7 +2462,7 @@
         <v>6.3069364841794595E-7</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12">
       <c r="C23" s="10">
         <v>1.20043081179E-8</v>
       </c>
@@ -2507,7 +2485,7 @@
         <v>1.7426759768568445E-7</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12">
       <c r="I24">
         <v>5689.9093270000003</v>
       </c>
@@ -2523,7 +2501,7 @@
         <v>6.3365405367221683E-8</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12">
       <c r="I25">
         <v>11906.962123900001</v>
       </c>
@@ -2539,7 +2517,7 @@
         <v>1.3891394701204263E-8</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12">
       <c r="I26">
         <v>9615.4596280000005</v>
       </c>
@@ -2563,14 +2541,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="13"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
@@ -2579,7 +2557,7 @@
     <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="60">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
@@ -2626,7 +2604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -2675,7 +2653,7 @@
       </c>
       <c r="O2" s="15"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -2726,7 +2704,7 @@
         <v>8.2736851705699996E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -2771,18 +2749,26 @@
       </c>
       <c r="O4" s="15"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="H8" s="21"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="J9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
+      <c r="J11" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="18">
+      <c r="J12" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="K12" s="20"/>
     </row>
   </sheetData>
@@ -2792,14 +2778,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.85546875" customWidth="1"/>
@@ -2809,7 +2795,7 @@
     <col min="13" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="22" t="s">
         <v>14</v>
       </c>
@@ -2834,7 +2820,7 @@
       <c r="T1" s="13"/>
       <c r="U1" s="13"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="22" t="s">
         <v>15</v>
       </c>
@@ -2889,7 +2875,7 @@
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3" s="22" t="s">
         <v>31</v>
       </c>
@@ -2960,7 +2946,7 @@
         <v>8.9584136085841442E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="A4" s="22" t="s">
         <v>32</v>
       </c>
@@ -3034,7 +3020,7 @@
         <v>8.1247560422383746E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="A5" s="22" t="s">
         <v>33</v>
       </c>
@@ -3108,7 +3094,7 @@
         <v>8.4220443518979851E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="A6" s="36"/>
       <c r="B6" s="28">
         <v>1000</v>
@@ -3180,7 +3166,7 @@
         <v>0.82588687632896784</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="A7" s="36"/>
       <c r="B7" s="28">
         <v>1000</v>
@@ -3252,7 +3238,7 @@
         <v>8.0759731022681116</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="A8" s="36"/>
       <c r="B8" s="28">
         <v>1000</v>
@@ -3324,7 +3310,7 @@
         <v>86.051678026017768</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="A9" s="36"/>
       <c r="B9" s="28">
         <v>1000</v>
@@ -3396,7 +3382,7 @@
         <v>802.8322965448383</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21">
       <c r="A10" s="36"/>
       <c r="B10" s="28">
         <v>1000</v>
@@ -3468,7 +3454,7 @@
         <v>8338.3480950980102</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="A11" s="36"/>
       <c r="B11" s="28">
         <v>1000</v>
@@ -3540,7 +3526,7 @@
         <v>70501.539560977326</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="A12" s="38"/>
       <c r="B12" s="28">
         <v>1000</v>
@@ -3612,7 +3598,7 @@
         <v>478837.05270536768</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="A13" s="38"/>
       <c r="B13" s="28">
         <v>1000</v>
@@ -3684,7 +3670,7 @@
         <v>654479.51773117436</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21">
       <c r="A14" s="38"/>
       <c r="B14" s="28">
         <v>1000</v>
@@ -3756,7 +3742,7 @@
         <v>520749.52103440184</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21">
       <c r="A15" s="38"/>
       <c r="B15" s="37">
         <v>1000</v>
@@ -3828,7 +3814,7 @@
         <v>255649.83997664336</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21">
       <c r="A16" s="38"/>
       <c r="B16" s="37">
         <v>1000</v>
@@ -3900,7 +3886,7 @@
         <v>236964.57445502374</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21">
       <c r="A17" s="38"/>
       <c r="B17" s="37">
         <v>1000</v>
@@ -3972,7 +3958,7 @@
         <v>129132.80240221185</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21">
       <c r="A18" s="38"/>
       <c r="B18" s="37">
         <v>1000</v>
@@ -4044,7 +4030,7 @@
         <v>27430.636297064473</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21">
       <c r="A19" s="38"/>
       <c r="B19" s="37">
         <v>1000</v>
@@ -4116,7 +4102,7 @@
         <v>1130.3867994736379</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21">
       <c r="A20" s="38"/>
       <c r="B20" s="28">
         <v>1000</v>
@@ -4188,7 +4174,7 @@
         <v>0.32718786036968839</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21">
       <c r="A21" s="36"/>
       <c r="B21" s="28">
         <v>1000</v>
@@ -4260,7 +4246,7 @@
         <v>8.0105600100365633E-5</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21">
       <c r="A22" s="36"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -4283,7 +4269,7 @@
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21">
       <c r="A23" s="36"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>

--- a/Plans - Copy.xlsx
+++ b/Plans - Copy.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Ratio K*/K</t>
   </si>
@@ -139,6 +139,9 @@
   <si>
     <t>general kenobi</t>
   </si>
+  <si>
+    <t xml:space="preserve">need to multiply by branching ratio of K0 --&gt; pi+ pi-  : </t>
+  </si>
 </sst>
 </file>
 
@@ -242,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -371,6 +374,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,9 +440,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.41211621274613403"/>
-          <c:y val="0.15723521714474531"/>
-          <c:w val="0.75722462817147906"/>
-          <c:h val="0.72088764946048456"/>
+          <c:y val="0.15723521714474537"/>
+          <c:w val="0.75722462817147951"/>
+          <c:h val="0.72088764946048489"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -522,13 +528,12 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="165324288"/>
-        <c:axId val="165325824"/>
+        <c:axId val="143607296"/>
+        <c:axId val="143608832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="165324288"/>
+        <c:axId val="143607296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -568,14 +573,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165325824"/>
+        <c:crossAx val="143608832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165325824"/>
+        <c:axId val="143608832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -623,7 +628,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165324288"/>
+        <c:crossAx val="143607296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -676,7 +681,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2545,7 +2550,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2723,18 +2728,22 @@
       <c r="F4" s="14">
         <v>0.47782701477599998</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="14">
+        <v>7.6665746319900002E-2</v>
+      </c>
       <c r="H4" s="14">
         <v>1.4349264000000001E-6</v>
       </c>
-      <c r="I4" s="14"/>
+      <c r="I4" s="14">
+        <v>2.1770589999999999E-8</v>
+      </c>
       <c r="J4" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.4342839805722482E-3</v>
       </c>
       <c r="K4" s="15">
         <f t="shared" si="1"/>
-        <v>6.8564659813527253E-7</v>
+        <v>6.8731565666544709E-7</v>
       </c>
       <c r="L4" s="15">
         <f t="shared" si="2"/>
@@ -2742,7 +2751,7 @@
       </c>
       <c r="M4" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.5556874336508858</v>
       </c>
       <c r="N4" s="15">
         <v>8.2736851705699996E-4</v>
@@ -2751,6 +2760,12 @@
     </row>
     <row r="7" spans="1:15">
       <c r="E7" s="10"/>
+      <c r="G7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="50">
+        <v>0.69199999999999995</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="H8" s="21"/>
